--- a/data/trans_orig/OT2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D2F9213-9A65-4D15-B3BB-DCA7F1EDAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D6762B-A820-49B4-BAB7-4C8126FEF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DFAF92FC-2CA0-4ADA-A85F-97B357673D7E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8717DA6-81B6-437E-AEBB-32FD2FB392C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="137">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -177,28 +177,28 @@
     <t>48,66%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -213,64 +213,64 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>63,97%</t>
+    <t>64,0%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>42,23%</t>
+    <t>42,49%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>50,69%</t>
+    <t>56,41%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>29,05%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>67,36%</t>
+    <t>72,25%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,51%</t>
+    <t>46,65%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,32%</t>
+    <t>34,88%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>83,59%</t>
+    <t>84,32%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>61,12%</t>
+    <t>60,55%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -303,13 +303,10 @@
     <t>75,8%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>20,98%</t>
+    <t>21,01%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -318,13 +315,10 @@
     <t>24,2%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>79,02%</t>
+    <t>78,99%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -336,7 +330,7 @@
     <t>45,87%</t>
   </si>
   <si>
-    <t>18,38%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>26,65%</t>
@@ -345,7 +339,7 @@
     <t>16,2%</t>
   </si>
   <si>
-    <t>75,23%</t>
+    <t>75,32%</t>
   </si>
   <si>
     <t>54,13%</t>
@@ -354,31 +348,31 @@
     <t>21,23%</t>
   </si>
   <si>
-    <t>72,21%</t>
+    <t>82,48%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>45,61%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>85,33%</t>
@@ -387,7 +381,7 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -396,61 +390,64 @@
     <t>4,57%</t>
   </si>
   <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>33,0%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>62,99%</t>
+    <t>58,24%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F4011E-DEC6-4A48-A3EA-205A3A5DAF55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663EE7BF-0671-4598-9ECC-1D932D52BF44}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4512,7 +4509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FD85B8-3AED-4C29-BB84-F9DE1C379CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B647511-2072-4694-9B6A-5AA6B5153A3D}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6593,7 +6590,7 @@
         <v>87</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>21</v>
@@ -6620,10 +6617,10 @@
         <v>4144</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>21</v>
@@ -6677,7 +6674,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,7 +6725,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,7 +6776,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,7 +6827,7 @@
         <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,7 +6878,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6893,13 @@
         <v>974</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -6926,13 +6923,13 @@
         <v>974</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,7 +7030,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>25</v>
@@ -7410,7 +7407,7 @@
         <v>2804</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>20</v>
@@ -7425,7 +7422,7 @@
         <v>1132</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>20</v>
@@ -7443,7 +7440,7 @@
         <v>85</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>21</v>
@@ -7497,7 +7494,7 @@
         <v>22</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,7 +7545,7 @@
         <v>22</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,7 +7596,7 @@
         <v>22</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,7 +7647,7 @@
         <v>22</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,7 +7662,7 @@
         <v>1019</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>20</v>
@@ -7695,13 +7692,13 @@
         <v>1019</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7728,7 @@
         <v>1335</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>20</v>
@@ -7746,13 +7743,13 @@
         <v>1336</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7817,13 @@
         <v>8717</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -7835,13 +7832,13 @@
         <v>7165</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M68" s="7">
         <v>15</v>
@@ -7850,13 +7847,13 @@
         <v>15882</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q68" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P68" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,28 +7868,28 @@
         <v>1084</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -7901,13 +7898,13 @@
         <v>1084</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,7 +7925,7 @@
         <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -7943,7 +7940,7 @@
         <v>22</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -7958,7 +7955,7 @@
         <v>22</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,7 +7976,7 @@
         <v>22</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -7988,13 +7985,13 @@
         <v>1347</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -8003,13 +8000,13 @@
         <v>1347</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,28 +8021,28 @@
         <v>1083</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="7">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
-      </c>
-      <c r="I72" s="7">
-        <v>0</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -8054,13 +8051,13 @@
         <v>1083</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,14 +8072,14 @@
         <v>1019</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H73" s="7">
         <v>0</v>
       </c>
@@ -8096,7 +8093,7 @@
         <v>22</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -8105,13 +8102,13 @@
         <v>1019</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q73" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8123,13 @@
         <v>974</v>
       </c>
       <c r="E74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -8141,13 +8138,13 @@
         <v>2309</v>
       </c>
       <c r="J74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -8156,13 +8153,13 @@
         <v>3283</v>
       </c>
       <c r="O74" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P74" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="Q74" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D6762B-A820-49B4-BAB7-4C8126FEF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAC6700-8EFF-416D-B919-B0A6E75D1B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8717DA6-81B6-437E-AEBB-32FD2FB392C2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE19CAE5-62F1-4A8A-BCAA-702E856CA196}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="138">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -150,6 +150,9 @@
     <t>26,58%</t>
   </si>
   <si>
+    <t>79,58%</t>
+  </si>
+  <si>
     <t>Huelva</t>
   </si>
   <si>
@@ -177,28 +180,28 @@
     <t>48,66%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -213,70 +216,70 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>64,0%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>42,49%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>56,41%</t>
+    <t>62,52%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>29,05%</t>
+    <t>35,91%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>72,25%</t>
+    <t>68,08%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,65%</t>
+    <t>46,9%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>34,88%</t>
+    <t>41,47%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>83,59%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>60,55%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>46,25%</t>
@@ -306,7 +309,7 @@
     <t>80,97%</t>
   </si>
   <si>
-    <t>21,01%</t>
+    <t>20,78%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -318,7 +321,7 @@
     <t>19,03%</t>
   </si>
   <si>
-    <t>78,99%</t>
+    <t>79,22%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -354,34 +357,34 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -390,7 +393,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -402,52 +405,52 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>47,9%</t>
+    <t>48,26%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>41,88%</t>
+    <t>34,21%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>22,11%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>32,01%</t>
+    <t>34,59%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>58,24%</t>
+    <t>55,74%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
 </sst>
 </file>
@@ -859,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663EE7BF-0671-4598-9ECC-1D932D52BF44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333D2D9D-DEE4-4E9D-A79F-76A857D369AE}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2424,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,7 +2534,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -2911,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -2939,7 +2942,7 @@
         <v>22</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,7 +2963,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -2988,7 +2991,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3037,7 +3040,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,7 +3061,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3086,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>25</v>
@@ -3132,7 +3135,7 @@
         <v>21</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>25</v>
@@ -3156,7 +3159,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3184,7 +3187,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3208,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3233,7 +3236,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,7 +3290,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -3312,7 +3315,7 @@
         <v>2271</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>20</v>
@@ -3327,7 +3330,7 @@
         <v>2271</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>20</v>
@@ -3459,7 +3462,7 @@
         <v>1044</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>20</v>
@@ -3474,7 +3477,7 @@
         <v>1044</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>20</v>
@@ -3681,7 +3684,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -3709,7 +3712,7 @@
         <v>21</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>25</v>
@@ -3724,7 +3727,7 @@
         <v>21</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>25</v>
@@ -3761,7 +3764,7 @@
         <v>22</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -3776,7 +3779,7 @@
         <v>22</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3813,7 @@
         <v>22</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -3825,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3862,7 @@
         <v>22</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -3874,7 +3877,7 @@
         <v>22</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -3923,7 +3926,7 @@
         <v>22</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,7 +3960,7 @@
         <v>22</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -3972,7 +3975,7 @@
         <v>22</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4009,7 @@
         <v>22</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -4021,7 +4024,7 @@
         <v>22</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4090,13 @@
         <v>3009</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H68" s="7">
         <v>3</v>
@@ -4102,13 +4105,13 @@
         <v>3336</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M68" s="7">
         <v>6</v>
@@ -4117,13 +4120,13 @@
         <v>6345</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,7 +4147,7 @@
         <v>22</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -4159,7 +4162,7 @@
         <v>22</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -4174,7 +4177,7 @@
         <v>22</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,7 +4198,7 @@
         <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -4204,13 +4207,13 @@
         <v>2006</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -4219,13 +4222,13 @@
         <v>2006</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4249,7 @@
         <v>22</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -4255,13 +4258,13 @@
         <v>1045</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -4270,13 +4273,13 @@
         <v>1045</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4294,13 @@
         <v>1054</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -4306,13 +4309,13 @@
         <v>902</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
@@ -4321,13 +4324,13 @@
         <v>1956</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4345,13 @@
         <v>2121</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -4357,13 +4360,13 @@
         <v>1040</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -4372,13 +4375,13 @@
         <v>3161</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,7 +4402,7 @@
         <v>22</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -4414,7 +4417,7 @@
         <v>22</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -4429,7 +4432,7 @@
         <v>22</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +4488,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4509,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B647511-2072-4694-9B6A-5AA6B5153A3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD3BF25-E15D-4917-8BE9-BF90B1983C2A}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4526,7 +4529,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4652,7 +4655,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4667,7 +4670,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,7 +4704,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4716,7 +4719,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4753,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4765,7 +4768,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4802,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4814,7 +4817,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4863,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4900,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4912,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,7 +4946,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>25</v>
@@ -4958,7 +4961,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>25</v>
@@ -5033,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5042,7 +5045,7 @@
         <v>1159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -5057,7 +5060,7 @@
         <v>1159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>20</v>
@@ -5081,7 +5084,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>25</v>
@@ -5108,7 +5111,7 @@
         <v>1084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>20</v>
@@ -5135,7 +5138,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5186,7 +5189,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5195,7 +5198,7 @@
         <v>1347</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -5210,7 +5213,7 @@
         <v>1347</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>20</v>
@@ -5237,7 +5240,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5288,7 +5291,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5339,7 +5342,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5799,7 +5802,7 @@
         <v>1811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
@@ -5827,7 +5830,7 @@
         <v>1811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>20</v>
@@ -5995,7 +5998,7 @@
         <v>1083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>20</v>
@@ -6023,7 +6026,7 @@
         <v>1083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>20</v>
@@ -6181,7 +6184,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -6575,7 +6578,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -6587,7 +6590,7 @@
         <v>3052</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>20</v>
@@ -6605,7 +6608,7 @@
         <v>21</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>25</v>
@@ -6617,10 +6620,10 @@
         <v>4144</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>21</v>
@@ -6659,7 +6662,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -6674,7 +6677,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,7 +6713,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -6725,7 +6728,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6761,7 +6764,7 @@
         <v>22</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6776,7 +6779,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,7 +6815,7 @@
         <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -6827,7 +6830,7 @@
         <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,7 +6866,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -6878,7 +6881,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,7 +6896,7 @@
         <v>974</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>20</v>
@@ -6914,7 +6917,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -6923,13 +6926,13 @@
         <v>974</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,7 +6988,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -7000,7 +7003,7 @@
         <v>21</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>25</v>
@@ -7030,7 +7033,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>25</v>
@@ -7054,7 +7057,7 @@
         <v>22</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7105,7 +7108,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7156,7 +7159,7 @@
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7207,7 +7210,7 @@
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7258,7 +7261,7 @@
         <v>22</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -7309,7 +7312,7 @@
         <v>22</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -7395,7 +7398,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -7407,7 +7410,7 @@
         <v>2804</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>20</v>
@@ -7422,7 +7425,7 @@
         <v>1132</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>20</v>
@@ -7437,10 +7440,10 @@
         <v>3936</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>21</v>
@@ -7494,7 +7497,7 @@
         <v>22</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7548,7 @@
         <v>22</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,7 +7599,7 @@
         <v>22</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,7 +7650,7 @@
         <v>22</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,7 +7665,7 @@
         <v>1019</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>20</v>
@@ -7692,13 +7695,13 @@
         <v>1019</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,7 +7731,7 @@
         <v>1335</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>20</v>
@@ -7743,13 +7746,13 @@
         <v>1336</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7820,13 @@
         <v>8717</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -7832,13 +7835,13 @@
         <v>7165</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M68" s="7">
         <v>15</v>
@@ -7847,13 +7850,13 @@
         <v>15882</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7871,13 @@
         <v>1084</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -7889,7 +7892,7 @@
         <v>22</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -7898,13 +7901,13 @@
         <v>1084</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,7 +7928,7 @@
         <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -7940,7 +7943,7 @@
         <v>22</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -7955,7 +7958,7 @@
         <v>22</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,7 +7979,7 @@
         <v>22</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -7985,13 +7988,13 @@
         <v>1347</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -8000,13 +8003,13 @@
         <v>1347</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,13 +8024,13 @@
         <v>1083</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8042,7 +8045,7 @@
         <v>22</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -8051,13 +8054,13 @@
         <v>1083</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,13 +8075,13 @@
         <v>1019</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -8093,7 +8096,7 @@
         <v>22</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -8102,13 +8105,13 @@
         <v>1019</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P73" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8126,13 @@
         <v>974</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -8138,13 +8141,13 @@
         <v>2309</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -8153,13 +8156,13 @@
         <v>3283</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,7 +8218,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/OT2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAC6700-8EFF-416D-B919-B0A6E75D1B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC997A57-C605-41CF-85E6-B011782D5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE19CAE5-62F1-4A8A-BCAA-702E856CA196}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0714ED9-52D5-4D39-B63C-BB6E393CA47F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>26,58%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
     <t>Huelva</t>
   </si>
   <si>
@@ -183,25 +180,25 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>82,83%</t>
+    <t>82,88%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -216,43 +213,43 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>61,88%</t>
+    <t>63,97%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>42,23%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>62,52%</t>
+    <t>50,69%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>35,91%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>68,08%</t>
+    <t>67,36%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>46,51%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,47%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>34,3%</t>
@@ -264,16 +261,16 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>50,73%</t>
+    <t>61,12%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -306,10 +303,13 @@
     <t>75,8%</t>
   </si>
   <si>
+    <t>24,74%</t>
+  </si>
+  <si>
     <t>80,97%</t>
   </si>
   <si>
-    <t>20,78%</t>
+    <t>20,98%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -318,10 +318,13 @@
     <t>24,2%</t>
   </si>
   <si>
+    <t>75,26%</t>
+  </si>
+  <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>79,22%</t>
+    <t>79,02%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -333,7 +336,7 @@
     <t>45,87%</t>
   </si>
   <si>
-    <t>18,4%</t>
+    <t>18,38%</t>
   </si>
   <si>
     <t>26,65%</t>
@@ -342,7 +345,7 @@
     <t>16,2%</t>
   </si>
   <si>
-    <t>75,32%</t>
+    <t>75,23%</t>
   </si>
   <si>
     <t>54,13%</t>
@@ -351,40 +354,40 @@
     <t>21,23%</t>
   </si>
   <si>
-    <t>82,48%</t>
+    <t>72,21%</t>
   </si>
   <si>
     <t>67,69%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>39,94%</t>
+    <t>38,68%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -393,7 +396,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>22,51%</t>
+    <t>23,16%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -405,52 +408,49 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>56,77%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>34,21%</t>
+    <t>33,56%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>22,11%</t>
+    <t>21,43%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>34,59%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>55,74%</t>
+    <t>62,99%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333D2D9D-DEE4-4E9D-A79F-76A857D369AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C9F792-BF40-43E2-B3FD-315DC7D20BA0}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2427,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,7 +2534,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>22</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,7 +2963,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3061,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>25</v>
@@ -3135,7 +3135,7 @@
         <v>21</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>25</v>
@@ -3159,7 +3159,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3208,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,7 +3290,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -3315,7 +3315,7 @@
         <v>2271</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>20</v>
@@ -3330,7 +3330,7 @@
         <v>2271</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>20</v>
@@ -3462,7 +3462,7 @@
         <v>1044</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>20</v>
@@ -3477,7 +3477,7 @@
         <v>1044</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>20</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -3712,7 +3712,7 @@
         <v>21</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>25</v>
@@ -3727,7 +3727,7 @@
         <v>21</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>25</v>
@@ -3764,7 +3764,7 @@
         <v>22</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>22</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>22</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>22</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,7 +3862,7 @@
         <v>22</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>22</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>22</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,7 +3960,7 @@
         <v>22</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>22</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +4009,7 @@
         <v>22</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>22</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4090,13 @@
         <v>3009</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H68" s="7">
         <v>3</v>
@@ -4105,13 +4105,13 @@
         <v>3336</v>
       </c>
       <c r="J68" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="L68" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M68" s="7">
         <v>6</v>
@@ -4120,13 +4120,13 @@
         <v>6345</v>
       </c>
       <c r="O68" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P68" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="Q68" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q68" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,37 +4147,37 @@
         <v>22</v>
       </c>
       <c r="G69" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H69" s="7">
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <v>0</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L69" s="7" t="s">
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M69" s="7">
-        <v>0</v>
-      </c>
-      <c r="N69" s="7">
-        <v>0</v>
-      </c>
-      <c r="O69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4198,7 @@
         <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -4207,13 +4207,13 @@
         <v>2006</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -4222,13 +4222,13 @@
         <v>2006</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>22</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -4258,13 +4258,13 @@
         <v>1045</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -4273,13 +4273,13 @@
         <v>1045</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4294,13 @@
         <v>1054</v>
       </c>
       <c r="E72" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -4309,13 +4309,13 @@
         <v>902</v>
       </c>
       <c r="J72" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L72" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
@@ -4324,13 +4324,13 @@
         <v>1956</v>
       </c>
       <c r="O72" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q72" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4345,13 @@
         <v>2121</v>
       </c>
       <c r="E73" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -4360,13 +4360,13 @@
         <v>1040</v>
       </c>
       <c r="J73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -4375,13 +4375,13 @@
         <v>3161</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P73" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P73" s="7" t="s">
+      <c r="Q73" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,37 +4402,37 @@
         <v>22</v>
       </c>
       <c r="G74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H74" s="7">
-        <v>0</v>
-      </c>
-      <c r="I74" s="7">
-        <v>0</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L74" s="7" t="s">
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q74" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M74" s="7">
-        <v>0</v>
-      </c>
-      <c r="N74" s="7">
-        <v>0</v>
-      </c>
-      <c r="O74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q74" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4488,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4512,7 +4512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD3BF25-E15D-4917-8BE9-BF90B1983C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BF35EA-3321-4EB1-ACBB-B922EC824E1D}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4529,7 +4529,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4655,7 +4655,7 @@
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4704,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4753,7 @@
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4768,7 +4768,7 @@
         <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4802,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4817,7 +4817,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4900,7 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4915,7 +4915,7 @@
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4946,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>25</v>
@@ -4961,7 +4961,7 @@
         <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>25</v>
@@ -5036,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>1159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -5060,7 +5060,7 @@
         <v>1159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>20</v>
@@ -5084,7 +5084,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>25</v>
@@ -5111,7 +5111,7 @@
         <v>1084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>20</v>
@@ -5138,7 +5138,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>1347</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>20</v>
@@ -5213,7 +5213,7 @@
         <v>1347</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>20</v>
@@ -5240,7 +5240,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>1811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>20</v>
@@ -5830,7 +5830,7 @@
         <v>1811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>20</v>
@@ -5998,7 +5998,7 @@
         <v>1083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>20</v>
@@ -6026,7 +6026,7 @@
         <v>1083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>20</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -6590,10 +6590,10 @@
         <v>3052</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>21</v>
@@ -6608,7 +6608,7 @@
         <v>21</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>25</v>
@@ -6662,7 +6662,7 @@
         <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>22</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>22</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -6866,7 +6866,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -6917,7 +6917,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -6926,13 +6926,13 @@
         <v>974</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,7 +6988,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -7003,7 +7003,7 @@
         <v>21</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>25</v>
@@ -7033,7 +7033,7 @@
         <v>21</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>25</v>
@@ -7057,7 +7057,7 @@
         <v>22</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -7108,7 +7108,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>22</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>22</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>22</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -7410,7 +7410,7 @@
         <v>2804</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>20</v>
@@ -7425,7 +7425,7 @@
         <v>1132</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>20</v>
@@ -7440,10 +7440,10 @@
         <v>3936</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>21</v>
@@ -7665,7 +7665,7 @@
         <v>1019</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>20</v>
@@ -7695,13 +7695,13 @@
         <v>1019</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7731,7 @@
         <v>1335</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>20</v>
@@ -7746,13 +7746,13 @@
         <v>1336</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P66" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7820,13 @@
         <v>8717</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -7835,13 +7835,13 @@
         <v>7165</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M68" s="7">
         <v>15</v>
@@ -7850,13 +7850,13 @@
         <v>15882</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,13 +7871,13 @@
         <v>1084</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>22</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -7901,13 +7901,13 @@
         <v>1084</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,7 +7928,7 @@
         <v>22</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>22</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>22</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,7 +7979,7 @@
         <v>22</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -7988,13 +7988,13 @@
         <v>1347</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -8003,13 +8003,13 @@
         <v>1347</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,7 +8024,7 @@
         <v>1083</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>20</v>
@@ -8045,7 +8045,7 @@
         <v>22</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -8054,7 +8054,7 @@
         <v>1083</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P72" s="7" t="s">
         <v>20</v>
@@ -8096,7 +8096,7 @@
         <v>22</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/OT2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC997A57-C605-41CF-85E6-B011782D5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E806CB-19F3-4CBE-9EAA-0318483614C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0714ED9-52D5-4D39-B63C-BB6E393CA47F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0E34756-E9FA-4859-BC0F-6AEBF9AB588B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="134">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -72,244 +72,232 @@
     <t>Otros</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>Obesidad morbida</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>Glaucoma</t>
+  </si>
+  <si>
+    <t>Parkinson</t>
+  </si>
+  <si>
+    <t>Apnea del sueño</t>
+  </si>
+  <si>
+    <t>Tiroides</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>Hernia de Hiato</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Obesidad morbida</t>
-  </si>
-  <si>
-    <t>Glaucoma</t>
-  </si>
-  <si>
-    <t>Parkinson</t>
-  </si>
-  <si>
-    <t>Apnea del sueño</t>
-  </si>
-  <si>
-    <t>Tiroides</t>
-  </si>
-  <si>
-    <t>Hernia de Hiato</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>36,25%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -862,7 +850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C9F792-BF40-43E2-B3FD-315DC7D20BA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07EEAC5-E337-49D3-9B77-8A4A7A200E2D}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -980,40 +968,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1969</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1969</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -1022,223 +1016,253 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1039</v>
+      </c>
       <c r="J9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1039</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>11</v>
@@ -1247,46 +1271,52 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,48 +1325,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1969</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1039</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3008</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1348,26 +1384,26 @@
         <v>1041</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1376,19 +1412,19 @@
         <v>1041</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1397,26 +1433,26 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1425,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1446,26 +1482,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1474,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1495,26 +1531,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -1523,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1544,26 +1580,26 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1572,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -1593,26 +1629,26 @@
         <v>2121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1621,19 +1657,19 @@
         <v>2121</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1642,26 +1678,26 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1670,13 +1706,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,26 +1727,26 @@
         <v>3162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1719,18 +1755,18 @@
         <v>3162</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1740,13 +1776,13 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1755,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1770,32 +1806,32 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1804,13 +1840,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -1819,32 +1855,32 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1853,13 +1889,13 @@
         <v>2006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1868,32 +1904,32 @@
         <v>2006</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1902,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -1917,32 +1953,32 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1951,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -1966,32 +2002,32 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2000,13 +2036,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2015,32 +2051,32 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2049,13 +2085,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2064,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2119,13 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2098,13 +2134,13 @@
         <v>2006</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2113,36 +2149,34 @@
         <v>2006</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2151,49 +2185,47 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>1968</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2202,13 +2234,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2217,34 +2249,32 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
       </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2253,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2268,34 +2298,32 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
       </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2304,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2319,34 +2347,32 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2355,13 +2381,13 @@
         <v>902</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2370,85 +2396,81 @@
         <v>902</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1040</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="M33" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="7">
-        <v>1039</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2457,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2472,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,54 +2509,52 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>1942</v>
+        <v>902</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M35" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>3910</v>
+        <v>902</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -2544,309 +2564,309 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,44 +2879,44 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -2908,26 +2928,26 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -2936,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -2957,26 +2977,26 @@
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -2985,19 +3005,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -3006,26 +3026,26 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3034,19 +3054,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -3055,26 +3075,26 @@
         <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3083,19 +3103,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
@@ -3104,26 +3124,26 @@
         <v>1054</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
@@ -3132,47 +3152,47 @@
         <v>1054</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C49" s="7">
-        <v>0</v>
-      </c>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3181,19 +3201,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C50" s="7">
         <v>0</v>
@@ -3202,26 +3222,26 @@
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3230,13 +3250,13 @@
         <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,26 +3271,26 @@
         <v>1054</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -3279,18 +3299,18 @@
         <v>1054</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -3300,13 +3320,13 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -3315,13 +3335,13 @@
         <v>2271</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -3330,32 +3350,32 @@
         <v>2271</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -3364,14 +3384,14 @@
         <v>0</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M53" s="7">
         <v>0</v>
       </c>
@@ -3379,32 +3399,32 @@
         <v>0</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3413,14 +3433,14 @@
         <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M54" s="7">
         <v>0</v>
       </c>
@@ -3428,32 +3448,32 @@
         <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -3462,13 +3482,13 @@
         <v>1044</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -3477,32 +3497,32 @@
         <v>1044</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -3511,14 +3531,14 @@
         <v>0</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M56" s="7">
         <v>0</v>
       </c>
@@ -3526,32 +3546,32 @@
         <v>0</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C57" s="7">
         <v>0</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -3560,14 +3580,14 @@
         <v>0</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M57" s="7">
         <v>0</v>
       </c>
@@ -3575,32 +3595,32 @@
         <v>0</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -3609,14 +3629,14 @@
         <v>0</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M58" s="7">
         <v>0</v>
       </c>
@@ -3624,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3663,13 @@
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -3658,13 +3678,13 @@
         <v>3315</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -3673,18 +3693,18 @@
         <v>3315</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -3694,13 +3714,13 @@
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -3709,13 +3729,13 @@
         <v>1064</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M60" s="7">
         <v>1</v>
@@ -3724,32 +3744,32 @@
         <v>1064</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -3758,13 +3778,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -3773,32 +3793,32 @@
         <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -3807,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -3822,32 +3842,32 @@
         <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -3856,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -3871,32 +3891,32 @@
         <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -3905,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -3920,32 +3940,32 @@
         <v>0</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C65" s="7">
         <v>0</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -3954,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -3969,32 +3989,32 @@
         <v>0</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H66" s="7">
         <v>0</v>
@@ -4003,13 +4023,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -4018,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4057,13 @@
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H67" s="7">
         <v>1</v>
@@ -4052,13 +4072,13 @@
         <v>1064</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M67" s="7">
         <v>1</v>
@@ -4067,13 +4087,13 @@
         <v>1064</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4110,13 @@
         <v>3009</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H68" s="7">
         <v>3</v>
@@ -4105,13 +4125,13 @@
         <v>3336</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M68" s="7">
         <v>6</v>
@@ -4120,19 +4140,19 @@
         <v>6345</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -4141,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -4156,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -4171,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -4192,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -4207,13 +4227,13 @@
         <v>2006</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -4222,19 +4242,19 @@
         <v>2006</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C71" s="7">
         <v>0</v>
@@ -4243,13 +4263,13 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -4258,13 +4278,13 @@
         <v>1045</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -4273,19 +4293,19 @@
         <v>1045</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
@@ -4294,13 +4314,13 @@
         <v>1054</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H72" s="7">
         <v>1</v>
@@ -4309,13 +4329,13 @@
         <v>902</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M72" s="7">
         <v>2</v>
@@ -4324,19 +4344,19 @@
         <v>1956</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C73" s="7">
         <v>2</v>
@@ -4345,13 +4365,13 @@
         <v>2121</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
@@ -4360,13 +4380,13 @@
         <v>1040</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -4375,19 +4395,19 @@
         <v>3161</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C74" s="7">
         <v>0</v>
@@ -4396,13 +4416,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -4411,13 +4431,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -4426,13 +4446,13 @@
         <v>0</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4467,13 @@
         <v>6184</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H75" s="7">
         <v>8</v>
@@ -4462,13 +4482,13 @@
         <v>8328</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M75" s="7">
         <v>14</v>
@@ -4477,18 +4497,18 @@
         <v>14512</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -4512,7 +4532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BF35EA-3321-4EB1-ACBB-B922EC824E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EAC4E2-5FEA-4485-B1D0-B0E79DBEF17D}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4529,7 +4549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4634,13 +4654,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4649,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4664,32 +4684,32 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4698,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4713,32 +4733,32 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4747,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4762,32 +4782,32 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4796,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4811,32 +4831,32 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4845,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4860,32 +4880,32 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4894,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4909,32 +4929,32 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4943,13 +4963,13 @@
         <v>973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4958,13 +4978,13 @@
         <v>973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4997,13 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4992,13 +5012,13 @@
         <v>973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -5007,18 +5027,18 @@
         <v>973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5030,13 +5050,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5045,13 +5065,13 @@
         <v>1159</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5060,19 +5080,19 @@
         <v>1159</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -5081,13 +5101,13 @@
         <v>1084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5096,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -5111,19 +5131,19 @@
         <v>1084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5132,49 +5152,49 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5183,13 +5203,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5198,13 +5218,13 @@
         <v>1347</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5213,19 +5233,19 @@
         <v>1347</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5234,100 +5254,100 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -5336,43 +5356,43 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,13 +5407,13 @@
         <v>1084</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5402,13 +5422,13 @@
         <v>2506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -5417,18 +5437,18 @@
         <v>3590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5438,309 +5458,309 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,44 +5773,44 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5802,26 +5822,26 @@
         <v>1811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -5830,19 +5850,19 @@
         <v>1811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -5851,26 +5871,26 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5879,19 +5899,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -5900,26 +5920,26 @@
         <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5928,19 +5948,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -5949,26 +5969,26 @@
         <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5977,19 +5997,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -5998,26 +6018,26 @@
         <v>1083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -6026,19 +6046,19 @@
         <v>1083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -6047,26 +6067,26 @@
         <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6075,19 +6095,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -6096,26 +6116,26 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6124,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,26 +6165,26 @@
         <v>2894</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M35" s="7">
         <v>3</v>
@@ -6173,18 +6193,18 @@
         <v>2894</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -6194,13 +6214,13 @@
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6209,13 +6229,13 @@
         <v>1920</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6224,32 +6244,32 @@
         <v>1920</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6258,13 +6278,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6273,32 +6293,32 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6307,13 +6327,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6322,32 +6342,32 @@
         <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -6356,13 +6376,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -6371,32 +6391,32 @@
         <v>0</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C40" s="7">
         <v>0</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -6405,13 +6425,13 @@
         <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6420,32 +6440,32 @@
         <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C41" s="7">
         <v>0</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -6454,13 +6474,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6469,32 +6489,32 @@
         <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -6503,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -6518,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6557,13 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -6552,13 +6572,13 @@
         <v>1920</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -6567,18 +6587,18 @@
         <v>1920</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -6590,13 +6610,13 @@
         <v>3052</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -6605,13 +6625,13 @@
         <v>1093</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M44" s="7">
         <v>4</v>
@@ -6620,19 +6640,19 @@
         <v>4144</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -6641,13 +6661,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -6656,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -6671,19 +6691,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -6692,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -6707,13 +6727,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -6722,19 +6742,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C47" s="7">
         <v>0</v>
@@ -6743,13 +6763,13 @@
         <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -6758,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -6773,19 +6793,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C48" s="7">
         <v>0</v>
@@ -6794,13 +6814,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -6809,13 +6829,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -6824,50 +6844,50 @@
         <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="7">
-        <v>0</v>
-      </c>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="M49" s="7">
         <v>0</v>
       </c>
@@ -6875,19 +6895,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -6896,13 +6916,13 @@
         <v>974</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -6911,13 +6931,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -6926,13 +6946,13 @@
         <v>974</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6967,13 @@
         <v>4026</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -6962,13 +6982,13 @@
         <v>1093</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M51" s="7">
         <v>5</v>
@@ -6977,18 +6997,18 @@
         <v>5118</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -7000,13 +7020,13 @@
         <v>1050</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -7015,13 +7035,13 @@
         <v>1861</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -7030,19 +7050,19 @@
         <v>2912</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C53" s="7">
         <v>0</v>
@@ -7051,49 +7071,49 @@
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0</v>
+      </c>
+      <c r="N53" s="7">
+        <v>0</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="7">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C54" s="7">
         <v>0</v>
@@ -7102,49 +7122,49 @@
         <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="7">
-        <v>0</v>
-      </c>
-      <c r="N54" s="7">
-        <v>0</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -7153,49 +7173,49 @@
         <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="7">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C56" s="7">
         <v>0</v>
@@ -7204,100 +7224,100 @@
         <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0</v>
-      </c>
-      <c r="N56" s="7">
-        <v>0</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="7">
-        <v>0</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <v>0</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="7">
-        <v>0</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C58" s="7">
         <v>0</v>
@@ -7306,43 +7326,43 @@
         <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>0</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M58" s="7">
-        <v>0</v>
-      </c>
-      <c r="N58" s="7">
-        <v>0</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7377,13 @@
         <v>1050</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -7372,13 +7392,13 @@
         <v>1861</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M59" s="7">
         <v>3</v>
@@ -7387,18 +7407,18 @@
         <v>2912</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -7410,13 +7430,13 @@
         <v>2804</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -7425,13 +7445,13 @@
         <v>1132</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -7440,19 +7460,19 @@
         <v>3936</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
@@ -7461,14 +7481,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H61" s="7">
         <v>0</v>
       </c>
@@ -7476,13 +7496,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -7491,19 +7511,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C62" s="7">
         <v>0</v>
@@ -7512,14 +7532,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
@@ -7527,13 +7547,13 @@
         <v>0</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -7542,19 +7562,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C63" s="7">
         <v>0</v>
@@ -7563,14 +7583,14 @@
         <v>0</v>
       </c>
       <c r="E63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
@@ -7578,13 +7598,13 @@
         <v>0</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -7593,19 +7613,19 @@
         <v>0</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -7614,14 +7634,14 @@
         <v>0</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
@@ -7629,13 +7649,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -7644,19 +7664,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -7665,13 +7685,13 @@
         <v>1019</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -7680,13 +7700,13 @@
         <v>0</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -7695,19 +7715,19 @@
         <v>1019</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
@@ -7716,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -7731,13 +7751,13 @@
         <v>1335</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M66" s="7">
         <v>1</v>
@@ -7746,13 +7766,13 @@
         <v>1336</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,13 +7787,13 @@
         <v>3823</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H67" s="7">
         <v>2</v>
@@ -7782,13 +7802,13 @@
         <v>2467</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M67" s="7">
         <v>5</v>
@@ -7797,13 +7817,13 @@
         <v>6291</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7840,13 @@
         <v>8717</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H68" s="7">
         <v>7</v>
@@ -7835,13 +7855,13 @@
         <v>7165</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M68" s="7">
         <v>15</v>
@@ -7850,19 +7870,19 @@
         <v>15882</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -7871,13 +7891,13 @@
         <v>1084</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -7886,13 +7906,13 @@
         <v>0</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M69" s="7">
         <v>1</v>
@@ -7901,19 +7921,19 @@
         <v>1084</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -7922,13 +7942,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -7937,34 +7957,34 @@
         <v>0</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M70" s="7">
-        <v>0</v>
-      </c>
-      <c r="N70" s="7">
-        <v>0</v>
-      </c>
-      <c r="O70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C71" s="7">
         <v>0</v>
@@ -7973,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -7988,13 +8008,13 @@
         <v>1347</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -8003,19 +8023,19 @@
         <v>1347</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
@@ -8024,13 +8044,13 @@
         <v>1083</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -8039,13 +8059,13 @@
         <v>0</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M72" s="7">
         <v>1</v>
@@ -8054,19 +8074,19 @@
         <v>1083</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -8075,13 +8095,13 @@
         <v>1019</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -8090,13 +8110,13 @@
         <v>0</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M73" s="7">
         <v>1</v>
@@ -8105,19 +8125,19 @@
         <v>1019</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
@@ -8126,13 +8146,13 @@
         <v>974</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
@@ -8141,13 +8161,13 @@
         <v>2309</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M74" s="7">
         <v>3</v>
@@ -8156,13 +8176,13 @@
         <v>3283</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8197,13 @@
         <v>12877</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H75" s="7">
         <v>10</v>
@@ -8192,13 +8212,13 @@
         <v>10821</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M75" s="7">
         <v>22</v>
@@ -8207,18 +8227,18 @@
         <v>23698</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
